--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T17:00:38+00:00</t>
+    <t>2024-03-22T16:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:25:12+00:00</t>
+    <t>2024-04-02T15:41:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension du Value Set http://hl7.org/fhir/ValueSet/usage-context-type pour fixer le type de contexte d'usage de la fiche de saisie avec le code EG ou le S pour Spécialité ordinale</t>
+    <t>Extension du Value Set http://hl7.org/fhir/ValueSet/usage-context-type pour fixer le type de contexte d'usage de la fiche de saisie avec le code EG ou le S pour Spécialité ordinale ou P01 pour le type de profession</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -129,7 +129,7 @@
     <t>https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire</t>
   </si>
   <si>
-    <t>PS</t>
+    <t>P01</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R288-TypeProfession/FHIR/TRE-R288-TypeProfession</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T15:41:03+00:00</t>
+    <t>2024-04-02T16:06:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T16:06:43+00:00</t>
+    <t>2024-04-10T16:04:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T16:04:08+00:00</t>
+    <t>2024-04-11T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:28:17+00:00</t>
+    <t>2024-04-11T09:33:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:33:38+00:00</t>
+    <t>2024-05-03T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T15:00:21+00:00</t>
+    <t>2024-05-13T08:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T08:42:46+00:00</t>
+    <t>2024-05-13T09:06:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T09:06:15+00:00</t>
+    <t>2024-05-15T15:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-ballot-1</t>
+    <t>0.4.0-qa-preview-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:09:55+00:00</t>
+    <t>2024-05-16T12:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-qa-preview-1</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T12:22:44+00:00</t>
+    <t>2024-05-16T15:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T15:07:59+00:00</t>
+    <t>2024-05-16T17:06:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T17:06:23+00:00</t>
+    <t>2024-05-17T07:43:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:43:07+00:00</t>
+    <t>2024-05-17T08:22:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T08:22:30+00:00</t>
+    <t>2024-05-17T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:21:28+00:00</t>
+    <t>2024-05-17T14:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T14:16:22+00:00</t>
+    <t>2024-05-22T08:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0-snapshot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:14:33+00:00</t>
+    <t>2024-05-23T14:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:06+00:00</t>
+    <t>2024-07-02T15:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T15:46:36+00:00</t>
+    <t>2024-07-09T07:30:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T07:30:06+00:00</t>
+    <t>2024-07-09T09:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:01:38+00:00</t>
+    <t>2024-07-09T09:29:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:29:20+00:00</t>
+    <t>2024-07-09T14:18:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -7,10 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from UsageContextType" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE-R67-TypeStru" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from TRE-R04-TypeSavo" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from TRE-R288-TypePro" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T14:18:56+00:00</t>
+    <t>2024-09-13T14:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T14:28:16+00:00</t>
+    <t>2024-10-07T14:01:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T14:01:40+00:00</t>
+    <t>2024-10-08T07:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T07:48:52+00:00</t>
+    <t>2024-10-23T09:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T09:49:13+00:00</t>
+    <t>2024-12-02T10:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T10:17:54+00:00</t>
+    <t>2024-12-04T15:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T15:03:14+00:00</t>
+    <t>2024-12-05T09:03:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-2</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T09:03:52+00:00</t>
+    <t>2024-12-09T11:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:05:44+00:00</t>
+    <t>2024-12-09T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T11:19:41+00:00</t>
+    <t>2024-12-09T12:55:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T12:55:38+00:00</t>
+    <t>2024-12-09T13:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:16:30+00:00</t>
+    <t>2024-12-09T13:44:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:44:46+00:00</t>
+    <t>2024-12-09T13:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T13:53:32+00:00</t>
+    <t>2024-12-09T14:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.5.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:43:44+00:00</t>
+    <t>2024-12-10T08:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:40:22+00:00</t>
+    <t>2024-12-10T08:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:43:17+00:00</t>
+    <t>2024-12-10T08:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:45:21+00:00</t>
+    <t>2024-12-16T09:17:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:17:42+00:00</t>
+    <t>2024-12-16T09:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:21:00+00:00</t>
+    <t>2024-12-16T09:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:28:29+00:00</t>
+    <t>2024-12-16T09:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:31:22+00:00</t>
+    <t>2024-12-16T09:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:34:54+00:00</t>
+    <t>2024-12-16T09:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:49:25+00:00</t>
+    <t>2024-12-16T09:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T09:53:18+00:00</t>
+    <t>2024-12-16T10:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:03:27+00:00</t>
+    <t>2024-12-16T10:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:04:41+00:00</t>
+    <t>2024-12-16T10:07:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:07:45+00:00</t>
+    <t>2024-12-16T10:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:11:58+00:00</t>
+    <t>2024-12-16T10:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:18:50+00:00</t>
+    <t>2024-12-16T10:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:19:28+00:00</t>
+    <t>2024-12-16T10:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T10:26:01+00:00</t>
+    <t>2025-01-22T15:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
     <sheet name="Include #2" r:id="rId6" sheetId="4"/>
     <sheet name="Include #3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #4" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -57,10 +58,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T15:00:55+00:00</t>
+    <t>2025-01-28T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +116,9 @@
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/usage-context-type</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/CodeSystem/usage-context-ror-codesystem</t>
   </si>
   <si>
     <t>Concept</t>
@@ -328,66 +335,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -409,28 +418,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -452,32 +461,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -499,10 +504,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -513,15 +518,15 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>36</v>
@@ -546,10 +551,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -560,18 +565,65 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T15:58:19+00:00</t>
+    <t>2025-03-03T10:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:17:50+00:00</t>
+    <t>2025-03-03T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T10:20:03+00:00</t>
+    <t>2025-03-03T17:10:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-03T17:10:11+00:00</t>
+    <t>2025-03-07T13:29:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-07T13:29:09+00:00</t>
+    <t>2025-03-10T14:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0-snapshot-1</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10T14:14:07+00:00</t>
+    <t>2025-03-13T17:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T17:00:51+00:00</t>
+    <t>2025-03-13T21:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T21:07:49+00:00</t>
+    <t>2025-03-14T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:18:51+00:00</t>
+    <t>2025-03-14T08:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:31:00+00:00</t>
+    <t>2025-03-14T08:36:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:36:00+00:00</t>
+    <t>2025-03-14T08:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T08:58:55+00:00</t>
+    <t>2025-03-14T09:23:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-14T09:23:47+00:00</t>
+    <t>2025-03-17T13:12:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T13:12:35+00:00</t>
+    <t>2025-03-18T09:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T09:01:13+00:00</t>
+    <t>2025-03-27T16:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-27T16:26:35+00:00</t>
+    <t>2025-06-04T09:55:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:55:05+00:00</t>
+    <t>2025-06-10T08:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T08:02:33+00:00</t>
+    <t>2025-07-17T08:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T08:38:04+00:00</t>
+    <t>2025-07-17T09:53:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T09:53:53+00:00</t>
+    <t>2025-07-17T13:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T13:53:21+00:00</t>
+    <t>2025-07-17T14:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:29:52+00:00</t>
+    <t>2025-07-17T15:27:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:27:59+00:00</t>
+    <t>2025-07-17T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T15:32:30+00:00</t>
+    <t>2025-07-25T09:27:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:27:54+00:00</t>
+    <t>2025-07-28T16:37:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T16:37:17+00:00</t>
+    <t>2025-07-29T14:46:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T14:46:28+00:00</t>
+    <t>2025-07-29T15:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T15:03:53+00:00</t>
+    <t>2025-07-30T08:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:54:50+00:00</t>
+    <t>2025-07-30T09:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T09:38:37+00:00</t>
+    <t>2025-10-16T15:18:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.7.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T15:18:57+00:00</t>
+    <t>2025-10-17T13:18:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:18:06+00:00</t>
+    <t>2025-10-17T13:49:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:49:18+00:00</t>
+    <t>2026-01-19T14:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T14:25:36+00:00</t>
+    <t>2026-01-20T13:10:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/main/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T13:10:13+00:00</t>
+    <t>2026-01-21T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
